--- a/school_data.xlsx
+++ b/school_data.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Median Salary (2 Years After Graduation)</t>
+          <t>Median Salary (1 Year After Graduation)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
